--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HWSMH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning practice\HWSMH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C703EC85-966C-4235-B236-57EBC2738F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99254FF8-CB78-4751-B3B4-23A30C1DE16E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D5671FE1-108A-47D9-8F21-0F08B56C84A5}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="38625" windowHeight="21225" xr2:uid="{D5671FE1-108A-47D9-8F21-0F08B56C84A5}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="18">
   <si>
     <t>Temparature</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +94,10 @@
     <t>F_norm = Frobenius norm/L2 norm=Matrix norm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Langevin Dynamics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -132,12 +129,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -169,7 +172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,6 +189,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,28 +511,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B2D1BC-A842-49E5-973C-2A7C1051BDD3}">
-  <dimension ref="A1:AN103"/>
+  <dimension ref="A1:AN102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92:G97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.08203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>7</v>
       </c>
@@ -537,7 +546,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="3" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -551,7 +560,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +601,7 @@
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
     </row>
-    <row r="6" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,7 +642,7 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
     </row>
-    <row r="7" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:38" x14ac:dyDescent="0.3">
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="2"/>
@@ -645,7 +654,7 @@
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
     </row>
-    <row r="8" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -737,7 +746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>0</v>
       </c>
@@ -830,7 +839,7 @@
         <v>3.8241999999999998</v>
       </c>
     </row>
-    <row r="10" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>20</v>
       </c>
@@ -923,7 +932,7 @@
         <v>3.9251999999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>40</v>
       </c>
@@ -1016,7 +1025,7 @@
         <v>3.8374999999999999</v>
       </c>
     </row>
-    <row r="12" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>60</v>
       </c>
@@ -1109,7 +1118,7 @@
         <v>3.9232</v>
       </c>
     </row>
-    <row r="13" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>80</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>3.8267000000000002</v>
       </c>
     </row>
-    <row r="14" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>100</v>
       </c>
@@ -1295,7 +1304,7 @@
         <v>3.8256000000000001</v>
       </c>
     </row>
-    <row r="15" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:38" x14ac:dyDescent="0.3">
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -1307,7 +1316,7 @@
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
     </row>
-    <row r="16" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:38" x14ac:dyDescent="0.3">
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -1319,7 +1328,7 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
     </row>
-    <row r="17" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1366,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1395,7 +1404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -1487,7 +1496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>0</v>
       </c>
@@ -1579,7 +1588,7 @@
         <v>3.8241999999999998</v>
       </c>
     </row>
-    <row r="22" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>20</v>
       </c>
@@ -1671,7 +1680,7 @@
         <v>6.5155000000000003</v>
       </c>
     </row>
-    <row r="23" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>40</v>
       </c>
@@ -1763,7 +1772,7 @@
         <v>11.093999999999999</v>
       </c>
     </row>
-    <row r="24" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>60</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>14.483499999999999</v>
       </c>
     </row>
-    <row r="25" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>80</v>
       </c>
@@ -1947,7 +1956,7 @@
         <v>16.709599999999998</v>
       </c>
     </row>
-    <row r="26" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>100</v>
       </c>
@@ -2039,7 +2048,7 @@
         <v>16.709599999999998</v>
       </c>
     </row>
-    <row r="28" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2086,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="29" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
@@ -2115,7 +2124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>0</v>
       </c>
@@ -2299,7 +2308,7 @@
         <v>3.8241999999999998</v>
       </c>
     </row>
-    <row r="33" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>20</v>
       </c>
@@ -2391,7 +2400,7 @@
         <v>6.5209999999999999</v>
       </c>
     </row>
-    <row r="34" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>40</v>
       </c>
@@ -2483,7 +2492,7 @@
         <v>11.1783</v>
       </c>
     </row>
-    <row r="35" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>60</v>
       </c>
@@ -2575,7 +2584,7 @@
         <v>15.561199999999999</v>
       </c>
     </row>
-    <row r="36" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>80</v>
       </c>
@@ -2667,7 +2676,7 @@
         <v>16.547899999999998</v>
       </c>
     </row>
-    <row r="37" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>100</v>
       </c>
@@ -2759,7 +2768,7 @@
         <v>16.547899999999998</v>
       </c>
     </row>
-    <row r="39" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>0</v>
       </c>
@@ -2797,7 +2806,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="40" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
@@ -2835,7 +2844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -2924,7 +2933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>0</v>
       </c>
@@ -3016,7 +3025,7 @@
         <v>3.8241999999999998</v>
       </c>
     </row>
-    <row r="44" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>20</v>
       </c>
@@ -3108,7 +3117,7 @@
         <v>6.5190999999999999</v>
       </c>
     </row>
-    <row r="45" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>40</v>
       </c>
@@ -3200,7 +3209,7 @@
         <v>11.1623</v>
       </c>
     </row>
-    <row r="46" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>60</v>
       </c>
@@ -3292,7 +3301,7 @@
         <v>14.571199999999999</v>
       </c>
     </row>
-    <row r="47" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>80</v>
       </c>
@@ -3384,7 +3393,7 @@
         <v>18.8093</v>
       </c>
     </row>
-    <row r="48" spans="3:38" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>100</v>
       </c>
@@ -3476,9 +3485,14 @@
         <v>19.313400000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="C50" s="4"/>
-      <c r="D50" s="5"/>
+    <row r="49" spans="1:40" s="7" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>10000</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3489,7 +3503,10 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C51" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3500,7 +3517,13 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>2000</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3511,7 +3534,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3522,14 +3545,15 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -3564,14 +3588,15 @@
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="H55" s="2"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -3606,14 +3631,9 @@
       <c r="AM55" s="2"/>
       <c r="AN55" s="2"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -3648,14 +3668,24 @@
       <c r="AM56" s="2"/>
       <c r="AN56" s="2"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -3690,14 +3720,24 @@
       <c r="AM57" s="2"/>
       <c r="AN57" s="2"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E58">
+        <v>90.3</v>
+      </c>
+      <c r="F58">
+        <v>16.435600000000001</v>
+      </c>
+      <c r="G58">
+        <v>3.8241999999999998</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -3732,14 +3772,24 @@
       <c r="AM58" s="2"/>
       <c r="AN58" s="2"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="E59">
+        <v>90.94</v>
+      </c>
+      <c r="F59">
+        <v>34.837200000000003</v>
+      </c>
+      <c r="G59">
+        <v>5.8982999999999999</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -3774,14 +3824,24 @@
       <c r="AM59" s="2"/>
       <c r="AN59" s="2"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="C60">
+        <v>40</v>
+      </c>
+      <c r="D60">
+        <v>0.2727</v>
+      </c>
+      <c r="E60">
+        <v>91.66</v>
+      </c>
+      <c r="F60">
+        <v>46.506999999999998</v>
+      </c>
+      <c r="G60">
+        <v>7.5743</v>
+      </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -3816,14 +3876,24 @@
       <c r="AM60" s="2"/>
       <c r="AN60" s="2"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="E61">
+        <v>91.52</v>
+      </c>
+      <c r="F61">
+        <v>55.755499999999998</v>
+      </c>
+      <c r="G61">
+        <v>8.8642000000000003</v>
+      </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3858,14 +3928,24 @@
       <c r="AM61" s="2"/>
       <c r="AN61" s="2"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="C62">
+        <v>80</v>
+      </c>
+      <c r="D62">
+        <v>0.35110000000000002</v>
+      </c>
+      <c r="E62">
+        <v>90.93</v>
+      </c>
+      <c r="F62">
+        <v>63.663800000000002</v>
+      </c>
+      <c r="G62">
+        <v>9.9107000000000003</v>
+      </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -3900,14 +3980,24 @@
       <c r="AM62" s="2"/>
       <c r="AN62" s="2"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="C63">
+        <v>100</v>
+      </c>
+      <c r="D63">
+        <v>0.34389999999999998</v>
+      </c>
+      <c r="E63">
+        <v>91.53</v>
+      </c>
+      <c r="F63">
+        <v>70.687899999999999</v>
+      </c>
+      <c r="G63">
+        <v>10.938000000000001</v>
+      </c>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -3942,14 +4032,9 @@
       <c r="AM63" s="2"/>
       <c r="AN63" s="2"/>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -3984,14 +4069,9 @@
       <c r="AM64" s="2"/>
       <c r="AN64" s="2"/>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -4026,14 +4106,15 @@
       <c r="AM65" s="2"/>
       <c r="AN65" s="2"/>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
+      <c r="C66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.01</v>
+      </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -4068,14 +4149,15 @@
       <c r="AM66" s="2"/>
       <c r="AN66" s="2"/>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="C67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="H67" s="2"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -4110,14 +4192,9 @@
       <c r="AM67" s="2"/>
       <c r="AN67" s="2"/>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
@@ -4152,14 +4229,24 @@
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -4194,14 +4281,24 @@
       <c r="AM69" s="2"/>
       <c r="AN69" s="2"/>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E70">
+        <v>90.3</v>
+      </c>
+      <c r="F70">
+        <v>16.435600000000001</v>
+      </c>
+      <c r="G70">
+        <v>3.8241999999999998</v>
+      </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -4236,14 +4333,24 @@
       <c r="AM70" s="2"/>
       <c r="AN70" s="2"/>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="E71">
+        <v>92.17</v>
+      </c>
+      <c r="F71">
+        <v>16.8733</v>
+      </c>
+      <c r="G71">
+        <v>4.0812999999999997</v>
+      </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -4278,14 +4385,24 @@
       <c r="AM71" s="2"/>
       <c r="AN71" s="2"/>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
+      <c r="C72">
+        <v>40</v>
+      </c>
+      <c r="D72">
+        <v>0.23710000000000001</v>
+      </c>
+      <c r="E72">
+        <v>92.91</v>
+      </c>
+      <c r="F72">
+        <v>17.275600000000001</v>
+      </c>
+      <c r="G72">
+        <v>4.2984</v>
+      </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -4320,14 +4437,24 @@
       <c r="AM72" s="2"/>
       <c r="AN72" s="2"/>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
+      <c r="C73">
+        <v>60</v>
+      </c>
+      <c r="D73">
+        <v>0.2157</v>
+      </c>
+      <c r="E73">
+        <v>93.65</v>
+      </c>
+      <c r="F73">
+        <v>17.667999999999999</v>
+      </c>
+      <c r="G73">
+        <v>4.4964000000000004</v>
+      </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -4362,14 +4489,24 @@
       <c r="AM73" s="2"/>
       <c r="AN73" s="2"/>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+      <c r="C74">
+        <v>80</v>
+      </c>
+      <c r="D74">
+        <v>0.20150000000000001</v>
+      </c>
+      <c r="E74">
+        <v>93.9</v>
+      </c>
+      <c r="F74">
+        <v>18.039899999999999</v>
+      </c>
+      <c r="G74">
+        <v>4.6896000000000004</v>
+      </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -4404,14 +4541,24 @@
       <c r="AM74" s="2"/>
       <c r="AN74" s="2"/>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
+      <c r="C75">
+        <v>100</v>
+      </c>
+      <c r="D75">
+        <v>0.191</v>
+      </c>
+      <c r="E75">
+        <v>94.16</v>
+      </c>
+      <c r="F75">
+        <v>18.412400000000002</v>
+      </c>
+      <c r="G75">
+        <v>4.8681000000000001</v>
+      </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -4446,14 +4593,9 @@
       <c r="AM75" s="2"/>
       <c r="AN75" s="2"/>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -4488,14 +4630,15 @@
       <c r="AM76" s="2"/>
       <c r="AN76" s="2"/>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="C77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1E-4</v>
+      </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -4530,14 +4673,15 @@
       <c r="AM77" s="2"/>
       <c r="AN77" s="2"/>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+      <c r="C78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="H78" s="2"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -4572,14 +4716,9 @@
       <c r="AM78" s="2"/>
       <c r="AN78" s="2"/>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -4614,14 +4753,24 @@
       <c r="AM79" s="2"/>
       <c r="AN79" s="2"/>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -4656,14 +4805,24 @@
       <c r="AM80" s="2"/>
       <c r="AN80" s="2"/>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E81">
+        <v>90.3</v>
+      </c>
+      <c r="F81">
+        <v>16.435600000000001</v>
+      </c>
+      <c r="G81">
+        <v>3.8241999999999998</v>
+      </c>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -4698,14 +4857,24 @@
       <c r="AM81" s="2"/>
       <c r="AN81" s="2"/>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="E82">
+        <v>92.22</v>
+      </c>
+      <c r="F82">
+        <v>16.601500000000001</v>
+      </c>
+      <c r="G82">
+        <v>4.0523999999999996</v>
+      </c>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -4740,14 +4909,24 @@
       <c r="AM82" s="2"/>
       <c r="AN82" s="2"/>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
+      <c r="C83">
+        <v>40</v>
+      </c>
+      <c r="D83">
+        <v>0.2361</v>
+      </c>
+      <c r="E83">
+        <v>93</v>
+      </c>
+      <c r="F83">
+        <v>16.741700000000002</v>
+      </c>
+      <c r="G83">
+        <v>4.2526000000000002</v>
+      </c>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -4782,14 +4961,24 @@
       <c r="AM83" s="2"/>
       <c r="AN83" s="2"/>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
+      <c r="C84">
+        <v>60</v>
+      </c>
+      <c r="D84">
+        <v>0.21579999999999999</v>
+      </c>
+      <c r="E84">
+        <v>93.53</v>
+      </c>
+      <c r="F84">
+        <v>16.873200000000001</v>
+      </c>
+      <c r="G84">
+        <v>4.4402999999999997</v>
+      </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -4824,14 +5013,24 @@
       <c r="AM84" s="2"/>
       <c r="AN84" s="2"/>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="C85">
+        <v>80</v>
+      </c>
+      <c r="D85">
+        <v>0.20219999999999999</v>
+      </c>
+      <c r="E85">
+        <v>93.82</v>
+      </c>
+      <c r="F85">
+        <v>16.997699999999998</v>
+      </c>
+      <c r="G85">
+        <v>4.6191000000000004</v>
+      </c>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -4866,14 +5065,24 @@
       <c r="AM85" s="2"/>
       <c r="AN85" s="2"/>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
+      <c r="C86">
+        <v>100</v>
+      </c>
+      <c r="D86">
+        <v>0.19089999999999999</v>
+      </c>
+      <c r="E86">
+        <v>94.1</v>
+      </c>
+      <c r="F86">
+        <v>17.1172</v>
+      </c>
+      <c r="G86">
+        <v>4.7853000000000003</v>
+      </c>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -4908,14 +5117,9 @@
       <c r="AM86" s="2"/>
       <c r="AN86" s="2"/>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -4950,14 +5154,15 @@
       <c r="AM87" s="2"/>
       <c r="AN87" s="2"/>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
+      <c r="C88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -4992,14 +5197,15 @@
       <c r="AM88" s="2"/>
       <c r="AN88" s="2"/>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
+      <c r="C89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="H89" s="2"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -5034,14 +5240,9 @@
       <c r="AM89" s="2"/>
       <c r="AN89" s="2"/>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -5076,14 +5277,24 @@
       <c r="AM90" s="2"/>
       <c r="AN90" s="2"/>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -5118,14 +5329,24 @@
       <c r="AM91" s="2"/>
       <c r="AN91" s="2"/>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="E92">
+        <v>90.3</v>
+      </c>
+      <c r="F92">
+        <v>16.435600000000001</v>
+      </c>
+      <c r="G92">
+        <v>3.8241999999999998</v>
+      </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -5160,14 +5381,24 @@
       <c r="AM92" s="2"/>
       <c r="AN92" s="2"/>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="C93">
+        <v>20</v>
+      </c>
+      <c r="D93">
+        <v>0.2666</v>
+      </c>
+      <c r="E93">
+        <v>92.27</v>
+      </c>
+      <c r="F93">
+        <v>16.598600000000001</v>
+      </c>
+      <c r="G93">
+        <v>4.0548999999999999</v>
+      </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -5202,14 +5433,24 @@
       <c r="AM93" s="2"/>
       <c r="AN93" s="2"/>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
+      <c r="C94">
+        <v>40</v>
+      </c>
+      <c r="D94">
+        <v>0.2366</v>
+      </c>
+      <c r="E94">
+        <v>93.03</v>
+      </c>
+      <c r="F94">
+        <v>16.735600000000002</v>
+      </c>
+      <c r="G94">
+        <v>4.2548000000000004</v>
+      </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
@@ -5244,14 +5485,24 @@
       <c r="AM94" s="2"/>
       <c r="AN94" s="2"/>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
+      <c r="C95">
+        <v>60</v>
+      </c>
+      <c r="D95">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="E95">
+        <v>93.6</v>
+      </c>
+      <c r="F95">
+        <v>16.8643</v>
+      </c>
+      <c r="G95">
+        <v>4.4416000000000002</v>
+      </c>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -5286,49 +5537,41 @@
       <c r="AM95" s="2"/>
       <c r="AN95" s="2"/>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.3">
       <c r="C96">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D96">
-        <v>0.40089999999999998</v>
+        <v>0.2011</v>
       </c>
       <c r="E96">
-        <v>90.26</v>
+        <v>93.84</v>
       </c>
       <c r="F96">
-        <v>84.879000000000005</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.45">
+        <v>16.987200000000001</v>
+      </c>
+      <c r="G96">
+        <v>4.6191000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C97">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D97">
-        <v>0.43869999999999998</v>
+        <v>0.191</v>
       </c>
       <c r="E97">
-        <v>89.04</v>
+        <v>94.12</v>
       </c>
       <c r="F97">
-        <v>93.159800000000004</v>
-      </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.45">
-      <c r="C98">
-        <v>50</v>
-      </c>
-      <c r="D98">
-        <v>0.46260000000000001</v>
-      </c>
-      <c r="E98">
-        <v>88.84</v>
-      </c>
-      <c r="F98">
-        <v>102.8292</v>
-      </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.45">
+        <v>17.103899999999999</v>
+      </c>
+      <c r="G97">
+        <v>4.7869000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.3">
       <c r="V100" t="s">
         <v>7</v>
       </c>
@@ -5336,28 +5579,12 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.45">
-      <c r="C101" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.45">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.3">
       <c r="V102" t="s">
         <v>6</v>
       </c>
       <c r="W102">
         <v>60000</v>
-      </c>
-    </row>
-    <row r="103" spans="3:23" x14ac:dyDescent="0.45">
-      <c r="C103" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103">
-        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -5375,12 +5602,12 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="90.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>0</v>
       </c>
@@ -5388,7 +5615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>1</v>
       </c>
@@ -5396,7 +5623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>2</v>
       </c>
@@ -5404,7 +5631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>3</v>
       </c>
@@ -5412,7 +5639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>4</v>
       </c>
